--- a/excel/collective/zestawy_dla_uczniow/zestaw_042.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_042.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 1</t>
   </si>
@@ -61,484 +61,493 @@
     <t>Przedmiot</t>
   </si>
   <si>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>Szymon Zieliński</t>
+  </si>
+  <si>
+    <t>Amelia Maciejewska</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Hanna Czarnecka</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>7,90</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>14,30</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>21,07</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>30,25</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>28,17</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>6,85</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>21,26</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>18,72</t>
+  </si>
+  <si>
+    <t>27,12</t>
+  </si>
+  <si>
+    <t>20,69</t>
+  </si>
+  <si>
+    <t>27,44</t>
+  </si>
+  <si>
+    <t>22,03</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>20,67</t>
+  </si>
+  <si>
+    <t>11,56</t>
+  </si>
+  <si>
+    <t>12,33</t>
+  </si>
+  <si>
+    <t>29,01</t>
+  </si>
+  <si>
+    <t>13,45</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>11.11.1987</t>
+  </si>
+  <si>
+    <t>8 932,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>28.05.1993</t>
+  </si>
+  <si>
+    <t>7 379,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>24.04.1994</t>
+  </si>
+  <si>
+    <t>3 976,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>02.02.1984</t>
+  </si>
+  <si>
+    <t>13 559,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>03.10.1987</t>
+  </si>
+  <si>
+    <t>5 942,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Kubiak</t>
+  </si>
+  <si>
+    <t>20.08.2002</t>
+  </si>
+  <si>
+    <t>14 695,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
+  </si>
+  <si>
+    <t>01.10.1995</t>
+  </si>
+  <si>
+    <t>7 506,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>09.02.1995</t>
+  </si>
+  <si>
+    <t>4 197,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Piekarska</t>
+  </si>
+  <si>
+    <t>04.10.1992</t>
+  </si>
+  <si>
+    <t>14 965,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kaczmarek</t>
+  </si>
+  <si>
+    <t>09.08.2004</t>
+  </si>
+  <si>
+    <t>8 697,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>10.07.1977</t>
+  </si>
+  <si>
+    <t>7 385,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wójcik</t>
+  </si>
+  <si>
+    <t>06.07.1993</t>
+  </si>
+  <si>
+    <t>8 351,00 zł</t>
+  </si>
+  <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
-    <t>Natalia Górska</t>
-  </si>
-  <si>
-    <t>Jan Szymański</t>
-  </si>
-  <si>
-    <t>Adam Krawczyk</t>
-  </si>
-  <si>
-    <t>Jan Wójcik</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>12,90</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>4,70</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>0,90</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>1,72</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>19,14</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>18,99</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>8,35</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>3,69</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>13,02</t>
-  </si>
-  <si>
-    <t>7,71</t>
-  </si>
-  <si>
-    <t>17,72</t>
-  </si>
-  <si>
-    <t>7,54</t>
-  </si>
-  <si>
-    <t>6,04</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>4,64</t>
-  </si>
-  <si>
-    <t>5,41</t>
-  </si>
-  <si>
-    <t>22,43</t>
-  </si>
-  <si>
-    <t>7,86</t>
-  </si>
-  <si>
-    <t>20,66</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Amelia Rogalska</t>
-  </si>
-  <si>
-    <t>20.06.1977</t>
-  </si>
-  <si>
-    <t>6 054,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Kowalczyk</t>
-  </si>
-  <si>
-    <t>26.11.2003</t>
-  </si>
-  <si>
-    <t>3 778,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Wiśniewski</t>
-  </si>
-  <si>
-    <t>28.05.2002</t>
-  </si>
-  <si>
-    <t>10 254,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Zieliński</t>
-  </si>
-  <si>
-    <t>13.10.1992</t>
-  </si>
-  <si>
-    <t>13 635,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Woźniak</t>
-  </si>
-  <si>
-    <t>11.05.1998</t>
-  </si>
-  <si>
-    <t>11 810,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
-  </si>
-  <si>
-    <t>21.12.1998</t>
-  </si>
-  <si>
-    <t>3 812,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Woźniak</t>
-  </si>
-  <si>
-    <t>17.07.2000</t>
-  </si>
-  <si>
-    <t>5 284,00 zł</t>
-  </si>
-  <si>
-    <t>23.08.1985</t>
-  </si>
-  <si>
-    <t>8 658,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Czarnecka</t>
-  </si>
-  <si>
-    <t>11.06.1979</t>
-  </si>
-  <si>
-    <t>5 211,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Zieliński</t>
-  </si>
-  <si>
-    <t>08.08.1997</t>
-  </si>
-  <si>
-    <t>14 279,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Urbaniak</t>
-  </si>
-  <si>
-    <t>08.02.1975</t>
-  </si>
-  <si>
-    <t>8 751,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Kubiak</t>
-  </si>
-  <si>
-    <t>11.09.1977</t>
-  </si>
-  <si>
-    <t>12 090,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Kowalski</t>
-  </si>
-  <si>
-    <t>28.04.2000</t>
-  </si>
-  <si>
-    <t>6 977,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Górska</t>
-  </si>
-  <si>
-    <t>12.06.1978</t>
-  </si>
-  <si>
-    <t>11 016,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Maciejewska</t>
-  </si>
-  <si>
-    <t>27.10.1985</t>
-  </si>
-  <si>
-    <t>7 228,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>24.02.1989</t>
-  </si>
-  <si>
-    <t>3 507,00 zł</t>
+    <t>18.06.1990</t>
+  </si>
+  <si>
+    <t>6 703,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Wilk</t>
+  </si>
+  <si>
+    <t>01.12.1983</t>
+  </si>
+  <si>
+    <t>7 919,00 zł</t>
+  </si>
+  <si>
+    <t>12.04.1977</t>
+  </si>
+  <si>
+    <t>3 551,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>06.08.1980</t>
+  </si>
+  <si>
+    <t>13 927,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>01.02.1998</t>
+  </si>
+  <si>
+    <t>4 114,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -610,298 +619,340 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 181,00 zł</t>
+  </si>
+  <si>
+    <t>1 323,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>866,00 zł</t>
+  </si>
+  <si>
+    <t>1 186,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 411,00 zł</t>
+  </si>
+  <si>
+    <t>1 919,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>555,00 zł</t>
+  </si>
+  <si>
+    <t>666,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 443,00 zł</t>
+  </si>
+  <si>
+    <t>1 659,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 245,00 zł</t>
+  </si>
+  <si>
+    <t>1 444,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 345,00 zł</t>
+  </si>
+  <si>
+    <t>1 533,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>809,00 zł</t>
+  </si>
+  <si>
+    <t>1 133,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 110,00 zł</t>
+  </si>
+  <si>
+    <t>1 221,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 269,00 zł</t>
+  </si>
+  <si>
+    <t>1 675,00 zł</t>
+  </si>
+  <si>
+    <t>1 251,00 zł</t>
+  </si>
+  <si>
+    <t>1 626,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>1 155,00 zł</t>
+  </si>
+  <si>
+    <t>1 467,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>1 309,00 zł</t>
+  </si>
+  <si>
+    <t>1 558,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>914,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>778,00 zł</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 070,00 zł</t>
+  </si>
+  <si>
+    <t>1 455,00 zł</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 288,00 zł</t>
+  </si>
+  <si>
+    <t>1 649,00 zł</t>
+  </si>
+  <si>
+    <t>509,00 zł</t>
+  </si>
+  <si>
+    <t>657,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>524,00 zł</t>
+  </si>
+  <si>
+    <t>597,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>503,00 zł</t>
-  </si>
-  <si>
-    <t>699,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 531,00 zł</t>
+    <t>1 258,00 zł</t>
+  </si>
+  <si>
+    <t>1 711,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
+  </si>
+  <si>
+    <t>1 816,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>746,00 zł</t>
+  </si>
+  <si>
+    <t>858,00 zł</t>
+  </si>
+  <si>
+    <t>1 165,00 zł</t>
+  </si>
+  <si>
+    <t>1 282,00 zł</t>
+  </si>
+  <si>
+    <t>951,00 zł</t>
+  </si>
+  <si>
+    <t>1 255,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>764,00 zł</t>
+  </si>
+  <si>
+    <t>993,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 402,00 zł</t>
+  </si>
+  <si>
+    <t>1 963,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>1 432,00 zł</t>
+  </si>
+  <si>
+    <t>1 933,00 zł</t>
+  </si>
+  <si>
+    <t>1 129,00 zł</t>
+  </si>
+  <si>
+    <t>1 468,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>1 184,00 zł</t>
+  </si>
+  <si>
+    <t>1 598,00 zł</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 707,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
-    <t>1 651,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 125,00 zł</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
-    <t>1 351,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>886,00 zł</t>
-  </si>
-  <si>
-    <t>1 187,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>776,00 zł</t>
-  </si>
-  <si>
-    <t>923,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 214,00 zł</t>
-  </si>
-  <si>
-    <t>1 335,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
-    <t>1 879,00 zł</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>600,00 zł</t>
-  </si>
-  <si>
-    <t>750,00 zł</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 487,00 zł</t>
-  </si>
-  <si>
-    <t>1 680,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>611,00 zł</t>
-  </si>
-  <si>
-    <t>709,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 239,00 zł</t>
-  </si>
-  <si>
-    <t>1 474,00 zł</t>
-  </si>
-  <si>
-    <t>621,00 zł</t>
-  </si>
-  <si>
-    <t>826,00 zł</t>
-  </si>
-  <si>
-    <t>708,00 zł</t>
-  </si>
-  <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
-    <t>746,00 zł</t>
-  </si>
-  <si>
-    <t>880,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 257,00 zł</t>
-  </si>
-  <si>
-    <t>1 634,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>649,00 zł</t>
-  </si>
-  <si>
-    <t>818,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
-    <t>1 305,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>516,00 zł</t>
-  </si>
-  <si>
-    <t>712,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 180,00 zł</t>
-  </si>
-  <si>
-    <t>1 605,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>812,00 zł</t>
-  </si>
-  <si>
-    <t>1 096,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
-    <t>1 659,00 zł</t>
-  </si>
-  <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
-    <t>1 632,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>1 443,00 zł</t>
-  </si>
-  <si>
-    <t>1 861,00 zł</t>
+    <t>1 113,00 zł</t>
+  </si>
+  <si>
+    <t>1 313,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1458,16 +1509,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1479,19 +1530,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
         <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1500,16 +1551,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1521,19 +1572,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1542,19 +1593,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1566,16 +1617,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1584,19 +1635,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1605,19 +1656,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1626,19 +1677,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1647,19 +1698,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="E26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1668,16 +1719,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -1689,19 +1740,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
         <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1838,7 +1889,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1853,7 +1904,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1883,7 +1934,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1898,7 +1949,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2015,7 +2066,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2027,7 +2078,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2039,7 +2090,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2051,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2063,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2111,7 +2162,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2123,7 +2174,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2135,7 +2186,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2147,7 +2198,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2159,7 +2210,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2207,7 +2258,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2219,7 +2270,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2231,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2243,7 +2294,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2255,7 +2306,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2289,10 +2340,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2398,25 +2449,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>6</v>
-      </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2424,13 +2475,13 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -2442,13 +2493,13 @@
         <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2456,28 +2507,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2494,25 +2545,25 @@
         <v>112</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2526,22 +2577,22 @@
         <v>114</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
       </c>
       <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -2550,20 +2601,36 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
@@ -2581,11 +2648,27 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,10 +2681,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2613,7 +2696,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2623,43 +2706,43 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>127</v>
@@ -2736,84 +2819,84 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>168</v>
@@ -2833,33 +2916,44 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>177</v>
+      <c r="A30" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +2971,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2896,7 +2990,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2906,75 +3000,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2982,22 +3076,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3005,22 +3099,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3028,22 +3122,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3051,22 +3145,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3074,22 +3168,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3097,22 +3191,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3120,22 +3214,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3143,22 +3237,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3166,22 +3260,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3189,22 +3283,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3212,22 +3306,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3235,22 +3329,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3258,22 +3352,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3281,22 +3375,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3304,22 +3398,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3327,22 +3421,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3350,22 +3444,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3373,22 +3467,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3396,22 +3490,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3419,22 +3513,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3442,22 +3536,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3465,22 +3559,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3488,22 +3582,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3511,22 +3605,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3534,22 +3628,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3557,22 +3651,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3580,67 +3674,136 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>231</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>177</v>
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>177</v>
+      <c r="A48" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>315</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_042.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_042.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>7,90</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,30</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,50</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>21,07</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>30,25</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>28,17</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,85</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>21,26</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>18,72</t>
-  </si>
-  <si>
-    <t>27,12</t>
-  </si>
-  <si>
-    <t>20,69</t>
-  </si>
-  <si>
-    <t>27,44</t>
-  </si>
-  <si>
-    <t>22,03</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>20,67</t>
-  </si>
-  <si>
-    <t>11,56</t>
-  </si>
-  <si>
-    <t>12,33</t>
-  </si>
-  <si>
-    <t>29,01</t>
-  </si>
-  <si>
-    <t>13,45</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,150 +328,99 @@
     <t>11.11.1987</t>
   </si>
   <si>
-    <t>8 932,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Sikorska</t>
   </si>
   <si>
     <t>28.05.1993</t>
   </si>
   <si>
-    <t>7 379,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kowalczyk</t>
   </si>
   <si>
     <t>24.04.1994</t>
   </si>
   <si>
-    <t>3 976,00 zł</t>
-  </si>
-  <si>
     <t>Lena Kubiak</t>
   </si>
   <si>
     <t>02.02.1984</t>
   </si>
   <si>
-    <t>13 559,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kaczmarek</t>
   </si>
   <si>
     <t>03.10.1987</t>
   </si>
   <si>
-    <t>5 942,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Kubiak</t>
   </si>
   <si>
     <t>20.08.2002</t>
   </si>
   <si>
-    <t>14 695,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Mazur</t>
   </si>
   <si>
     <t>01.10.1995</t>
   </si>
   <si>
-    <t>7 506,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kaczmarek</t>
   </si>
   <si>
     <t>09.02.1995</t>
   </si>
   <si>
-    <t>4 197,00 zł</t>
-  </si>
-  <si>
     <t>Lena Piekarska</t>
   </si>
   <si>
     <t>04.10.1992</t>
   </si>
   <si>
-    <t>14 965,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kaczmarek</t>
   </si>
   <si>
     <t>09.08.2004</t>
   </si>
   <si>
-    <t>8 697,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wiśniewski</t>
   </si>
   <si>
     <t>10.07.1977</t>
   </si>
   <si>
-    <t>7 385,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wójcik</t>
   </si>
   <si>
     <t>06.07.1993</t>
   </si>
   <si>
-    <t>8 351,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
     <t>18.06.1990</t>
   </si>
   <si>
-    <t>6 703,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Wilk</t>
   </si>
   <si>
     <t>01.12.1983</t>
   </si>
   <si>
-    <t>7 919,00 zł</t>
-  </si>
-  <si>
     <t>12.04.1977</t>
   </si>
   <si>
-    <t>3 551,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Jankowski</t>
   </si>
   <si>
     <t>06.08.1980</t>
   </si>
   <si>
-    <t>13 927,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wójcik</t>
   </si>
   <si>
     <t>01.02.1998</t>
   </si>
   <si>
-    <t>4 114,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -562,9 +433,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -625,12 +493,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 181,00 zł</t>
-  </si>
-  <si>
-    <t>1 323,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -640,12 +502,6 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>866,00 zł</t>
-  </si>
-  <si>
-    <t>1 186,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -658,12 +514,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 919,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -676,12 +526,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>555,00 zł</t>
-  </si>
-  <si>
-    <t>666,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
@@ -691,12 +535,6 @@
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 443,00 zł</t>
-  </si>
-  <si>
-    <t>1 659,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -709,12 +547,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 245,00 zł</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -724,12 +556,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 345,00 zł</t>
-  </si>
-  <si>
-    <t>1 533,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -739,24 +565,12 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
-    <t>1 133,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 110,00 zł</t>
-  </si>
-  <si>
-    <t>1 221,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -766,39 +580,15 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 269,00 zł</t>
-  </si>
-  <si>
-    <t>1 675,00 zł</t>
-  </si>
-  <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 626,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>1 155,00 zł</t>
-  </si>
-  <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
-    <t>1 558,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -808,151 +598,52 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>914,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>778,00 zł</t>
-  </si>
-  <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
-    <t>1 455,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 288,00 zł</t>
-  </si>
-  <si>
-    <t>1 649,00 zł</t>
-  </si>
-  <si>
-    <t>509,00 zł</t>
-  </si>
-  <si>
-    <t>657,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>524,00 zł</t>
-  </si>
-  <si>
-    <t>597,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 258,00 zł</t>
-  </si>
-  <si>
-    <t>1 711,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
-    <t>1 816,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>746,00 zł</t>
-  </si>
-  <si>
-    <t>858,00 zł</t>
-  </si>
-  <si>
-    <t>1 165,00 zł</t>
-  </si>
-  <si>
-    <t>1 282,00 zł</t>
-  </si>
-  <si>
-    <t>951,00 zł</t>
-  </si>
-  <si>
-    <t>1 255,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>764,00 zł</t>
-  </si>
-  <si>
-    <t>993,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 402,00 zł</t>
-  </si>
-  <si>
-    <t>1 963,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>1 432,00 zł</t>
-  </si>
-  <si>
-    <t>1 933,00 zł</t>
-  </si>
-  <si>
-    <t>1 129,00 zł</t>
-  </si>
-  <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>1 184,00 zł</t>
-  </si>
-  <si>
-    <t>1 598,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -974,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1031,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1049,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1081,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1523,7 +1217,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1544,7 +1238,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1565,7 +1259,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1586,7 +1280,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1607,7 +1301,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1628,7 +1322,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1649,7 +1343,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1670,7 +1364,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1691,7 +1385,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1712,7 +1406,7 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1733,7 +1427,7 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1754,27 +1448,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1808,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1828,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1838,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1868,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7.9</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.2</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14.3</v>
       </c>
       <c r="D16" s="3">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.9</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.5</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1993,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2018,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>21.07</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30.25</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>28.17</v>
       </c>
       <c r="C17" s="3">
         <v>22</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.85</v>
       </c>
       <c r="C18" s="3">
         <v>40</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>21.26</v>
       </c>
       <c r="C19" s="3">
         <v>35</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2133,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>18.72</v>
       </c>
       <c r="C24" s="3">
         <v>33</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>27.12</v>
       </c>
       <c r="C25" s="3">
         <v>41</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>20.69</v>
       </c>
       <c r="C26" s="3">
         <v>46</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>27.44</v>
       </c>
       <c r="C27" s="3">
         <v>18</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>22.030000000000001</v>
       </c>
       <c r="C28" s="3">
         <v>42</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2229,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>20.67</v>
       </c>
       <c r="C33" s="3">
         <v>27</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11.56</v>
       </c>
       <c r="C34" s="3">
         <v>11</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>12.33</v>
       </c>
       <c r="C35" s="3">
         <v>27</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>29.010000000000002</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>13.45</v>
       </c>
       <c r="C37" s="3">
         <v>39</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2343,7 +2027,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2363,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2469,16 +2153,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -2501,16 +2185,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2533,16 +2217,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2565,16 +2249,16 @@
       <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2597,16 +2281,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2629,40 +2313,40 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2695,49 +2379,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2745,216 +2429,210 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8932</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7379</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3976</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13559</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5942</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14695</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7506</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4197</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14965</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8697</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7385</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8351</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6703</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7919</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3551</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>172</v>
+        <v>130</v>
+      </c>
+      <c r="C26" s="7">
+        <v>13927</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>175</v>
+        <v>132</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4114</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>176</v>
+      <c r="A30" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2989,86 +2667,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>181</v>
+      <c r="A1" s="15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>198</v>
+      <c r="A15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3076,22 +2754,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1181</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1323</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3099,22 +2777,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="D17" s="7">
+        <v>866</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1186</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3122,22 +2800,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1411</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1919</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3145,22 +2823,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="7">
+        <v>555</v>
+      </c>
+      <c r="E19" s="7">
+        <v>666</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3168,22 +2846,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1443</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1659</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3191,22 +2869,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1245</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1444</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3214,22 +2892,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1345</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1533</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3237,22 +2915,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
+      </c>
+      <c r="D23" s="7">
+        <v>809</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1133</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3260,22 +2938,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1110</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1221</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3283,22 +2961,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1269</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1675</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3306,22 +2984,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>180</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1251</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1626</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3329,22 +3007,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>254</v>
+        <v>167</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1155</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1467</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3352,22 +3030,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>258</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1309</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1558</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3375,22 +3053,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>262</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="7">
+        <v>809</v>
+      </c>
+      <c r="E29" s="7">
+        <v>914</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3398,22 +3076,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>778</v>
+      </c>
+      <c r="E30" s="7">
+        <v>926</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3421,22 +3099,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>268</v>
+        <v>180</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1070</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1455</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3444,22 +3122,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1288</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1649</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3467,22 +3145,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>273</v>
+        <v>193</v>
+      </c>
+      <c r="D33" s="7">
+        <v>509</v>
+      </c>
+      <c r="E33" s="7">
+        <v>657</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3490,22 +3168,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>277</v>
+        <v>196</v>
+      </c>
+      <c r="D34" s="7">
+        <v>524</v>
+      </c>
+      <c r="E34" s="7">
+        <v>597</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3513,22 +3191,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>281</v>
+        <v>198</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1258</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1711</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3536,22 +3214,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>182</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1453</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1816</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3559,22 +3237,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>287</v>
+        <v>174</v>
+      </c>
+      <c r="D37" s="7">
+        <v>746</v>
+      </c>
+      <c r="E37" s="7">
+        <v>858</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3582,22 +3260,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>289</v>
+        <v>191</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1165</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1282</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3605,22 +3283,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>291</v>
+        <v>196</v>
+      </c>
+      <c r="D39" s="7">
+        <v>951</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1255</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3628,22 +3306,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>294</v>
+        <v>201</v>
+      </c>
+      <c r="D40" s="7">
+        <v>764</v>
+      </c>
+      <c r="E40" s="7">
+        <v>993</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3651,22 +3329,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>298</v>
+        <v>203</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1402</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1963</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3674,22 +3352,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>301</v>
+        <v>191</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1432</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1933</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3697,22 +3375,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>303</v>
+        <v>196</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1129</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1468</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3720,22 +3398,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1184</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1598</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3743,68 +3421,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>310</v>
+        <v>207</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1113</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1313</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>176</v>
+      <c r="A48" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>312</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>313</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>315</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_042.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_042.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Mikołaj Nowak</t>
-  </si>
-  <si>
-    <t>Szymon Zieliński</t>
-  </si>
-  <si>
-    <t>Amelia Maciejewska</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>Hanna Czarnecka</t>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>Natalia Król</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>Mikołaj Jankowski</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 42 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
+    <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,37 +266,34 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Król</t>
   </si>
   <si>
     <t>Jakub</t>
   </si>
   <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Amelia</t>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
   </si>
   <si>
     <t>Bednarska</t>
   </si>
   <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Szymański</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -325,115 +329,124 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>11.11.1987</t>
-  </si>
-  <si>
-    <t>Emilia Sikorska</t>
-  </si>
-  <si>
-    <t>28.05.1993</t>
-  </si>
-  <si>
-    <t>Jakub Kowalczyk</t>
-  </si>
-  <si>
-    <t>24.04.1994</t>
-  </si>
-  <si>
-    <t>Lena Kubiak</t>
-  </si>
-  <si>
-    <t>02.02.1984</t>
-  </si>
-  <si>
-    <t>Adam Kaczmarek</t>
-  </si>
-  <si>
-    <t>03.10.1987</t>
-  </si>
-  <si>
-    <t>Zuzanna Kubiak</t>
-  </si>
-  <si>
-    <t>20.08.2002</t>
-  </si>
-  <si>
-    <t>Szymon Mazur</t>
-  </si>
-  <si>
-    <t>01.10.1995</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>09.02.1995</t>
-  </si>
-  <si>
-    <t>Lena Piekarska</t>
-  </si>
-  <si>
-    <t>04.10.1992</t>
-  </si>
-  <si>
-    <t>Wojciech Kaczmarek</t>
-  </si>
-  <si>
-    <t>09.08.2004</t>
-  </si>
-  <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>10.07.1977</t>
-  </si>
-  <si>
-    <t>Filip Wójcik</t>
-  </si>
-  <si>
-    <t>06.07.1993</t>
+    <t>Adam Kowalczyk</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>Julia Urbaniak</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
+    <t>Maja Kubiak</t>
+  </si>
+  <si>
+    <t>Jan Lewandowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Lis</t>
+  </si>
+  <si>
+    <t>Kacper Lewandowski</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>Antoni Zieliński</t>
+  </si>
+  <si>
+    <t>Hanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Wiśniewski</t>
+  </si>
+  <si>
+    <t>Natalia Lis</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Maja Lis</t>
   </si>
   <si>
     <t>Kacper Kwiatkowski</t>
   </si>
   <si>
-    <t>18.06.1990</t>
-  </si>
-  <si>
-    <t>Natalia Wilk</t>
-  </si>
-  <si>
-    <t>01.12.1983</t>
-  </si>
-  <si>
-    <t>12.04.1977</t>
-  </si>
-  <si>
-    <t>Szymon Jankowski</t>
-  </si>
-  <si>
-    <t>06.08.1980</t>
-  </si>
-  <si>
-    <t>Hanna Wójcik</t>
-  </si>
-  <si>
-    <t>01.02.1998</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Amelia Urbaniak</t>
+  </si>
+  <si>
+    <t>Lena Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>Jakub Dąbrowski</t>
+  </si>
+  <si>
+    <t>Adam Piotrowski</t>
+  </si>
+  <si>
+    <t>Maja Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Julia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -487,163 +500,166 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
   </si>
   <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +731,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +754,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +795,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1107,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,10 +1212,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -1224,16 +1233,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>6</v>
@@ -1245,19 +1254,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,16 +1275,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -1287,19 +1296,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1317,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
       <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,16 +1338,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -1350,16 +1359,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1371,19 +1380,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1392,19 +1401,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1416,16 +1425,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1434,19 +1443,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1468,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1527,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1537,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1567,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7.9</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.5</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.5</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.8</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>14.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.7</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.9</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.7</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>16</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1717,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1745,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>21.07</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>28.71</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30.25</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.68</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>28.17</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>30.71</v>
       </c>
       <c r="C17" s="3">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.85</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20.14</v>
       </c>
       <c r="C18" s="3">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>21.26</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10.06</v>
       </c>
       <c r="C19" s="3">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1832,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1841,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>18.72</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>21.81</v>
       </c>
       <c r="C24" s="3">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>27.12</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>26.86</v>
       </c>
       <c r="C25" s="3">
-        <v>41</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>20.69</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4.26</v>
       </c>
       <c r="C26" s="3">
-        <v>46</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>27.44</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>19.34</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>22.030000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.34</v>
       </c>
       <c r="C28" s="3">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1928,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1937,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>20.67</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>12.14</v>
       </c>
       <c r="C33" s="3">
-        <v>27</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>11.56</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>27.22</v>
       </c>
       <c r="C34" s="3">
-        <v>11</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>12.33</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>18.48</v>
       </c>
       <c r="C35" s="3">
-        <v>27</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>29.010000000000002</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1.08</v>
       </c>
       <c r="C36" s="3">
-        <v>9</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>13.45</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>24.3</v>
       </c>
       <c r="C37" s="3">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2024,10 +2047,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,111 +2070,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2159,28 +2182,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
         <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2191,31 +2214,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2223,31 +2246,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>3</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,25 +2278,25 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
@@ -2285,40 +2308,24 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2329,30 +2336,14 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2365,10 +2356,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2379,260 +2370,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8932</v>
+        <v>102</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="7">
-        <v>7379</v>
+      <c r="B12" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>13900</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3976</v>
+      <c r="B13" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7033</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13559</v>
+        <v>105</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9490</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5942</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14367</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>14695</v>
+        <v>107</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6747</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7506</v>
+        <v>102</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4153</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4197</v>
+        <v>108</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C18" s="8">
+        <v>12859</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14965</v>
+        <v>109</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C19" s="8">
+        <v>12677</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8697</v>
+        <v>110</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10378</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7385</v>
+        <v>111</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7666</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8351</v>
+        <v>112</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10611</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6703</v>
+        <v>113</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14625</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7919</v>
+        <v>114</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C24" s="8">
+        <v>9371</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3551</v>
+        <v>115</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6794</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="7">
-        <v>13927</v>
+        <v>116</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C26" s="8">
+        <v>7908</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>133</v>
+        <v>117</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C27" s="8">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5135</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="2"/>
+      <c r="A31" s="16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2645,6 +2647,208 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>146</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>107</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>145</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3">
+        <v>120</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3">
+        <v>194</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3">
+        <v>168</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3">
+        <v>192</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="3">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3">
+        <v>164</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3">
+        <v>163</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3">
+        <v>154</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="3">
+        <v>175</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="3">
+        <v>97</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="3">
+        <v>120</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2667,86 +2871,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>137</v>
+      <c r="A1" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2754,22 +2958,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1181</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1323</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1252</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1502</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2777,22 +2981,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="7">
-        <v>866</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1186</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1095</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1259</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2800,22 +3004,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1118</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1411</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1919</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2823,22 +3027,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>555</v>
-      </c>
-      <c r="E19" s="7">
-        <v>666</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="8">
+        <v>539</v>
+      </c>
+      <c r="E19" s="8">
+        <v>717</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2846,22 +3050,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1443</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1659</v>
+        <v>172</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1554</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2869,22 +3073,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1245</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1444</v>
+        <v>160</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1296</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1737</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2892,22 +3096,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1345</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1533</v>
+        <v>168</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1399</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1931</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2915,22 +3119,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="7">
-        <v>809</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1133</v>
+        <v>176</v>
+      </c>
+      <c r="D23" s="8">
+        <v>570</v>
+      </c>
+      <c r="E23" s="8">
+        <v>627</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2938,22 +3142,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1110</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1221</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1227</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1374</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2961,22 +3165,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1269</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1675</v>
+        <v>182</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1159</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1426</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2984,22 +3188,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1251</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1626</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1011</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1264</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3007,22 +3211,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1155</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1467</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1209</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1378</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3030,22 +3234,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1309</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1558</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1430</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1745</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3053,22 +3257,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="7">
-        <v>809</v>
-      </c>
-      <c r="E29" s="7">
-        <v>914</v>
+        <v>182</v>
+      </c>
+      <c r="D29" s="8">
+        <v>695</v>
+      </c>
+      <c r="E29" s="8">
+        <v>938</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3076,22 +3280,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="7">
-        <v>778</v>
-      </c>
-      <c r="E30" s="7">
-        <v>926</v>
+      <c r="D30" s="8">
+        <v>557</v>
+      </c>
+      <c r="E30" s="8">
+        <v>713</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3099,22 +3303,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1455</v>
+        <v>168</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1488</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1652</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3122,22 +3326,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1288</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1649</v>
+        <v>188</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1071</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1285</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3145,22 +3349,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="7">
-        <v>509</v>
-      </c>
-      <c r="E33" s="7">
-        <v>657</v>
+        <v>188</v>
+      </c>
+      <c r="D33" s="8">
+        <v>523</v>
+      </c>
+      <c r="E33" s="8">
+        <v>596</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3168,22 +3372,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1014</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1115</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D34" s="7">
-        <v>524</v>
-      </c>
-      <c r="E34" s="7">
-        <v>597</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3191,22 +3395,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1258</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1711</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>871</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1150</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3214,22 +3418,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1453</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1816</v>
+        <v>202</v>
+      </c>
+      <c r="D36" s="8">
+        <v>912</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1167</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3237,22 +3441,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="7">
-        <v>746</v>
-      </c>
-      <c r="E37" s="7">
-        <v>858</v>
+        <v>204</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1484</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1885</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3260,22 +3464,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1165</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1282</v>
+        <v>168</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1317</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1673</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3283,22 +3487,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="7">
-        <v>951</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1255</v>
+        <v>206</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1150</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1380</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3306,22 +3510,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="7">
-        <v>764</v>
-      </c>
-      <c r="E40" s="7">
-        <v>993</v>
+        <v>179</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1366</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1858</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3329,22 +3533,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1402</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1963</v>
+        <v>208</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1141</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1403</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3352,22 +3556,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1482</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2001</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1432</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1933</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3375,22 +3579,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1129</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1468</v>
+        <v>193</v>
+      </c>
+      <c r="D43" s="8">
+        <v>634</v>
+      </c>
+      <c r="E43" s="8">
+        <v>710</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3398,22 +3602,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1184</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1598</v>
+        <v>169</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1215</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1665</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3421,58 +3625,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1113</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1313</v>
+        <v>212</v>
+      </c>
+      <c r="D45" s="8">
+        <v>881</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1207</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>133</v>
+      <c r="A48" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
